--- a/Work/output.xlsx
+++ b/Work/output.xlsx
@@ -531,7 +531,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,13 +557,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1024,19 +1017,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,7 +1038,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1054,118 +1050,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,8 +1168,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1526,8 +1519,8 @@
   <sheetPr/>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1889,7 +1882,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1920,7 +1913,7 @@
       <c r="A28" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C28" t="s">
@@ -1945,10 +1938,10 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C30" t="s">
@@ -2433,11 +2426,11 @@
     <hyperlink ref="A25" r:id="rId6" display="https://jxdxsjy.jx.edu.cn/nchu/teachin/view/id/171791"/>
     <hyperlink ref="A26" r:id="rId7" display="https://jxdxsjy.jx.edu.cn/nchu/teachin/view/id/171653"/>
     <hyperlink ref="A27" r:id="rId8" display="https://jxdxsjy.jx.edu.cn/nchu/teachin/view/id/171577"/>
-    <hyperlink ref="A28" r:id="rId9" display="https://jxdxsjy.jx.edu.cn/nchu/teachin/view/id/171872"/>
+    <hyperlink ref="A28" r:id="rId9" display="https://jxdxsjy.jx.edu.cn/nchu/teachin/view/id/171872" tooltip="https://jxdxsjy.jx.edu.cn/nchu/teachin/view/id/171872"/>
     <hyperlink ref="A29" r:id="rId10" display="https://jxdxsjy.jx.edu.cn/nchu/teachin/view/id/171692"/>
     <hyperlink ref="A30" r:id="rId11" display="https://jxdxsjy.jx.edu.cn/nchu/teachin/view/id/171431"/>
     <hyperlink ref="A31" r:id="rId12" display="https://jxdxsjy.jx.edu.cn/nchu/teachin/view/id/171457"/>
-    <hyperlink ref="A32" r:id="rId13" display="https://jxdxsjy.jx.edu.cn/nchu/teachin/view/id/171424"/>
+    <hyperlink ref="A32" r:id="rId13" display="https://jxdxsjy.jx.edu.cn/nchu/teachin/view/id/171424" tooltip="https://jxdxsjy.jx.edu.cn/nchu/teachin/view/id/171424"/>
     <hyperlink ref="A33" r:id="rId14" display="https://jxdxsjy.jx.edu.cn/nchu/teachin/view/id/171273"/>
     <hyperlink ref="A34" r:id="rId15" display="https://jxdxsjy.jx.edu.cn/nchu/teachin/view/id/171427"/>
     <hyperlink ref="A35" r:id="rId16" display="https://jxdxsjy.jx.edu.cn/nchu/teachin/view/id/171752"/>
